--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9678362573099415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9268292682926829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8918128654970761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8245614035087719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.7586206896551725</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7191358024691359</v>
+        <v>0.9938271604938271</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8144664031620554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5713450292397659</v>
+        <v>0.9222222222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6899411764705883</v>
+        <v>0.8436521286395129</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8806692657569851</v>
+        <v>0.9987654320987656</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.878048780487805</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9222222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8636363636363636</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9268292682926829</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7586206896551725</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9938271604938271</v>
+        <v>0.9382716049382717</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8144664031620554</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8436521286395129</v>
+        <v>0.6735064935064935</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9987654320987656</v>
+        <v>0.9676543209876544</v>
       </c>
     </row>
   </sheetData>
